--- a/data/trans_bre/P23_DUKE_AF_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AF_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,06</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-14,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-40,57%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-20,93%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>45,66%</t>
+          <t>-11,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-11,99%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-19,73%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 0,39</t>
+          <t>-22,05; 6,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 1,66</t>
+          <t>-11,11; 11,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 19,67</t>
+          <t>-16,38; 1,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 8,4</t>
+          <t>-28,45; -0,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,3; 3,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-51,34; 9,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 172,51</t>
+          <t>-29,71; 10,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 14,35</t>
+          <t>-17,58; 23,34</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-24,21; 2,93</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-36,46; -1,41</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,02%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,68%</t>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-9,34%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 8,17</t>
+          <t>-8,07; 8,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 6,57</t>
+          <t>-3,78; 10,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 4,71</t>
+          <t>-5,3; 7,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 2,62</t>
+          <t>-14,72; 1,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 46,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 43,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 27,72</t>
+          <t>-11,38; 14,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 3,83</t>
+          <t>-5,43; 17,41</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-7,51; 12,38</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-20,1; 2,93</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,68%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>-1,39%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,99%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 3,03</t>
+          <t>-4,32; 12,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 8,23</t>
+          <t>-8,08; 6,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 9,17</t>
+          <t>-3,39; 8,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 11,88</t>
+          <t>-3,72; 12,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,83; 19,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 83,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 69,74</t>
+          <t>-6,09; 21,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 19,42</t>
+          <t>-11,2; 9,25</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 14,38</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 20,21</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,16%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>-6,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,32%</t>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 2,47</t>
+          <t>-10,64; 2,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 4,08</t>
+          <t>-7,7; 9,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 6,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 2,64</t>
+          <t>-8,13; 8,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 13,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 28,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 42,72</t>
+          <t>-15,96; 4,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 4,03</t>
+          <t>-11,81; 18,97</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-11,57; 14,77</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-2,92</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,25%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,69%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-4,27%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-5,6; 2,89</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 4,98</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 3,44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-7,33; 1,64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,15; 4,72</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,37; 8,26</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,82; 5,48</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-10,47; 2,48</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_DUKE_AF_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AF_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-7,4</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,5</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-14,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-11,12%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-11,99%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-19,73%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-8.597976191332446</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.342899239540485</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-7.499915236343013</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-14.03763735967645</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.1290183861586146</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.02385119981104341</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.1206004402027801</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.199290014950892</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-22,05; 6,13</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,11; 11,5</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-16,38; 1,81</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-28,45; -0,9</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-29,71; 10,6</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-17,58; 23,34</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-24,21; 2,93</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-36,46; -1,41</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-22.76932106798443</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.972462770682139</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-16.71539145093395</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-28.19931765845742</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.3019751003063902</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1594183483068559</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2457964615690347</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.370183638477295</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.34409958524931</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.46367080087214</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.753408838581077</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-0.6034418877890833</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.09688834640731374</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2489215236224076</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.02710080268736539</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-0.01005765207253654</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,51</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-6,48</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,01%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,63%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,94%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-9,34%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,07; 8,79</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 10,19</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,3; 7,66</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-14,72; 1,97</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-11,38; 14,41</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-5,43; 17,41</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-7,51; 12,38</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-20,1; 2,93</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.6486835210620323</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.054942641556192</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.115767293188696</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-5.723460437476346</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.009696742792837732</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.0650149781106748</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.01704986901669887</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.08303516123538753</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,04</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,29</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,02%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-1,39%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,99%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>6,25%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.517798659750803</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.433474077400188</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-5.551099138966628</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-13.95904802775392</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.1052997367821485</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.04903823970902345</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.08089239545444128</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1920550481405963</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 12,89</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,08; 6,01</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,39; 8,91</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 12,74</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-6,09; 21,25</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-11,2; 9,25</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; 14,38</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-5,0; 20,21</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.158141523472143</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.68166201694383</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.464822643219518</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.988100272047307</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.1474232742134425</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1868621983741206</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1229939643301661</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.0465692778263536</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-4,15</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-6,49%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,09%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,08%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.906100964075998</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.046962998328527</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.225834796174431</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.54152725053688</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.05848617238363085</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.01526422490027828</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.03316048151944746</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.06635943168417896</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-10,64; 2,85</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,7; 9,91</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-8,13; 8,89</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-15,96; 4,53</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-11,81; 18,97</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-11,57; 14,77</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.549382553610601</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.216617455470736</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.797253645428472</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.469593226292458</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.06349942709546129</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1116750551191147</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.05402723216525337</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.04781301204513444</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.43141717983714</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.966014830916695</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.278638193232602</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>12.98534604771065</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.2266776612333222</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.09182633518493394</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.1292479653220701</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.2058260786006466</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,92</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-2,25%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,11%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-0,69%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-4,27%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,6; 2,89</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,81; 4,98</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,62; 3,44</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,33; 1,64</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-8,15; 4,72</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-4,37; 8,26</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-6,82; 5,48</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-10,47; 2,48</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.14595740736697</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.389587851933294</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.6949936077983887</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.880093824241804</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.002184376371609783</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.02189385121501434</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.0106370370891622</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.05620855686819719</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.721171005241104</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.263247624474902</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.709886864440408</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-9.42456193659811</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.08137270085094638</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.0485983512455429</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.06930636937659033</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1310239407515323</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.713474691185226</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.952553655335216</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.385809628796097</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.408323744621854</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.08936390035750193</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.09873963163910458</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.05341124549226019</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.02201606183165034</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
